--- a/게임 디자인/DB/적DB.xlsx
+++ b/게임 디자인/DB/적DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\EXLIX\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\샴블즈\Exlix\게임 디자인\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6864B-DF04-4578-8281-869AF0E2CE5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF85BD24-581D-4AA6-A862-1AAA05129D6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="4080" windowWidth="22440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13410" yWindow="645" windowWidth="24360" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>적넘버</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,11 +43,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_at1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_at2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_at3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special1</t>
+  </si>
+  <si>
+    <t>special1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>도적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
+    <t>도적 두목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제국 군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿔 돼지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모스킷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액체 괴물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,23 +226,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002</t>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at1 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 회피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,9 +310,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -398,22 +598,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="15" width="9" style="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="17" width="15.625" style="1" customWidth="1"/>
+    <col min="18" max="21" width="15.625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,35 +626,360 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
